--- a/public/plantilla_importacion_productos.xlsx
+++ b/public/plantilla_importacion_productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS VIVOBOOK\Documents\Programación\Angular\optica-angular\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3546C202-1A60-4529-80E7-DA02CB8E2007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1919B-5CC9-4D97-B029-7A17545780A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{09DB8C61-75D7-4791-8621-EFA47FDED1E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{09DB8C61-75D7-4791-8621-EFA47FDED1E7}"/>
   </bookViews>
   <sheets>
     <sheet name="ECUPERSA ACADEMIC" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">PLANTILLA DE PRODUCTOS </t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>OPTICA MACIAS "SUCURSAL"</t>
+  </si>
+  <si>
+    <t>COSTO</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -235,6 +238,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,9 +290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,7 +330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -427,7 +436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0451375-9663-48E4-A3F1-D88552ABDB00}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,31 +601,33 @@
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
@@ -624,13 +635,14 @@
         <v>2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
@@ -640,9 +652,10 @@
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -658,7 +671,10 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
